--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -55,67 +55,82 @@
     <t>Winners</t>
   </si>
   <si>
-    <t>Sun, Dec 25, 2022</t>
-  </si>
-  <si>
-    <t>12:00p</t>
-  </si>
-  <si>
-    <t>2:30p</t>
-  </si>
-  <si>
-    <t>5:00p</t>
+    <t>Mon, Dec 26, 2022</t>
+  </si>
+  <si>
+    <t>7:00p</t>
+  </si>
+  <si>
+    <t>7:30p</t>
   </si>
   <si>
     <t>8:00p</t>
   </si>
   <si>
-    <t>10:30p</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Madison Square Garden (IV)</t>
-  </si>
-  <si>
-    <t>American Airlines Center</t>
-  </si>
-  <si>
-    <t>TD Garden</t>
-  </si>
-  <si>
-    <t>Chase Center</t>
-  </si>
-  <si>
-    <t>Ball Arena</t>
+    <t>10:00p</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Rocket Mortgage Fieldhouse</t>
+  </si>
+  <si>
+    <t>Little Caesars Arena</t>
+  </si>
+  <si>
+    <t>FTX Arena</t>
+  </si>
+  <si>
+    <t>United Center</t>
+  </si>
+  <si>
+    <t>Smoothie King Center</t>
+  </si>
+  <si>
+    <t>AT&amp;T Center</t>
+  </si>
+  <si>
+    <t>Moda Center</t>
   </si>
 </sst>
 </file>
@@ -473,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -534,16 +549,16 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -551,25 +566,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -577,25 +592,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -603,25 +618,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -629,25 +644,77 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>178</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>179</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+  <si>
+    <t>Unnamed: 0.1</t>
+  </si>
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -488,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,187 +537,211 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>173</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>174</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>175</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>176</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>177</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>178</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>179</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Unnamed: 0.1</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Winners</t>
   </si>
   <si>
-    <t>Mon, Dec 26, 2022</t>
+    <t>Thu, Dec 29, 2022</t>
   </si>
   <si>
     <t>7:00p</t>
@@ -70,70 +70,61 @@
     <t>8:00p</t>
   </si>
   <si>
-    <t>10:00p</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
+    <t>8:30p</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
   </si>
   <si>
     <t>Los Angeles Clippers</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
   </si>
   <si>
     <t>Houston Rockets</t>
   </si>
   <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Rocket Mortgage Fieldhouse</t>
-  </si>
-  <si>
-    <t>Little Caesars Arena</t>
-  </si>
-  <si>
-    <t>FTX Arena</t>
-  </si>
-  <si>
-    <t>United Center</t>
-  </si>
-  <si>
-    <t>Smoothie King Center</t>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Spectrum Center</t>
+  </si>
+  <si>
+    <t>Gainbridge Fieldhouse</t>
+  </si>
+  <si>
+    <t>TD Garden</t>
+  </si>
+  <si>
+    <t>Scotiabank Arena</t>
   </si>
   <si>
     <t>AT&amp;T Center</t>
   </si>
   <si>
-    <t>Moda Center</t>
+    <t>American Airlines Center</t>
   </si>
 </sst>
 </file>
@@ -491,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -561,13 +552,13 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -578,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -590,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -607,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -619,13 +610,13 @@
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -636,25 +627,25 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -665,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -677,13 +668,13 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -694,54 +685,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>179</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0.1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -58,73 +55,37 @@
     <t>Winners</t>
   </si>
   <si>
-    <t>Thu, Dec 29, 2022</t>
-  </si>
-  <si>
-    <t>7:00p</t>
-  </si>
-  <si>
-    <t>7:30p</t>
+    <t>Sun, Jan 1, 2023</t>
   </si>
   <si>
     <t>8:00p</t>
   </si>
   <si>
-    <t>8:30p</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers</t>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Spectrum Center</t>
-  </si>
-  <si>
-    <t>Gainbridge Fieldhouse</t>
-  </si>
-  <si>
-    <t>TD Garden</t>
-  </si>
-  <si>
-    <t>Scotiabank Arena</t>
-  </si>
-  <si>
-    <t>AT&amp;T Center</t>
-  </si>
-  <si>
-    <t>American Airlines Center</t>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Ball Arena</t>
+  </si>
+  <si>
+    <t>FedEx Forum</t>
+  </si>
+  <si>
+    <t>Fiserv Forum</t>
   </si>
 </sst>
 </file>
@@ -482,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,19 +489,16 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>198</v>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -548,162 +506,66 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>199</v>
+      <c r="C3" t="s">
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>200</v>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>201</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>202</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>203</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" t="s">
-        <v>30</v>
+      <c r="N4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
